--- a/bh3/546547297232494724_2021-07-12_20-02-39.xlsx
+++ b/bh3/546547297232494724_2021-07-12_20-02-39.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-24 13:07:18</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44401.54673611111</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -612,10 +626,8 @@
           <t>4919498693</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-16 09:41:57</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44393.40413194444</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -679,10 +691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:04:22</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44392.79469907407</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -754,10 +764,8 @@
           <t>4905064014</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:51:11</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44391.41054398148</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -825,10 +833,8 @@
           <t>4896067661</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-13 17:00:33</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44390.70871527777</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -904,10 +910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-13 16:56:56</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44390.7062037037</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -971,10 +975,8 @@
           <t>4896067661</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-13 16:52:54</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44390.70340277778</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1050,10 +1052,8 @@
           <t>4896328738</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-13 16:39:50</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44390.69432870371</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1121,10 +1121,8 @@
           <t>4895803923</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-13 16:27:36</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44390.68583333334</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1195,10 +1193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:21:07</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44390.63966435185</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1266,10 +1262,8 @@
           <t>4895803923</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:42:50</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44390.57141203704</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1333,10 +1327,8 @@
           <t>4898778262</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:53:45</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44390.53732638889</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1412,10 +1404,8 @@
           <t>4899523704</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:39:45</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44390.52760416667</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1491,10 +1481,8 @@
           <t>4899425149</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:34:51</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44390.52420138889</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1558,10 +1546,8 @@
           <t>4899425149</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:34:10</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44390.52372685185</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1627,10 +1613,8 @@
           <t>4899425149</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:30:26</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44390.52113425926</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1698,10 +1682,8 @@
           <t>4898675150</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:29:50</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44390.52071759259</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1765,10 +1747,8 @@
           <t>4899384912</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:28:34</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44390.51983796297</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1832,10 +1812,8 @@
           <t>4899882173</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:27:03</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44390.51878472222</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1899,10 +1877,8 @@
           <t>4899523704</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:24:44</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44390.51717592592</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1970,10 +1946,8 @@
           <t>4899425149</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:23:07</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44390.51605324074</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2038,10 +2012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:19:08</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44390.51328703704</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
@@ -2105,10 +2077,8 @@
           <t>4899562960</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:38:48</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44390.48527777778</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2180,10 +2150,8 @@
           <t>4899523704</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:32:08</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44390.48064814815</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2259,10 +2227,8 @@
           <t>4899502376</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:28:54</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44390.47840277778</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2322,10 +2288,8 @@
           <t>4899470461</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:23:03</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44390.47434027777</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2390,10 +2354,8 @@
           <t>4896541257</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:21:13</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44390.47306712963</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2469,10 +2431,8 @@
           <t>4899424690</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:15:30</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44390.46909722222</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2540,10 +2500,8 @@
           <t>4899425149</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:15:09</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44390.46885416667</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2611,10 +2569,8 @@
           <t>4899418431</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:14:34</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44390.46844907408</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2690,10 +2646,8 @@
           <t>4899384912</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:09:49</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44390.46515046297</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2761,10 +2715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:02:24</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44390.46</v>
       </c>
       <c r="I33" t="n">
         <v>9</v>
@@ -2832,10 +2784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:57:29</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44390.45658564815</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
@@ -2907,10 +2857,8 @@
           <t>4898953169</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:45:07</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44390.44799768519</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2978,10 +2926,8 @@
           <t>4898953169</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:32:58</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44390.43956018519</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3045,10 +2991,8 @@
           <t>4898953169</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:20:28</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44390.43087962963</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3116,10 +3060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:18:34</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44390.42956018518</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
@@ -3187,10 +3129,8 @@
           <t>4899080910</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:10:44</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44390.42412037037</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3262,10 +3202,8 @@
           <t>4896136867</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:04:39</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44390.41989583334</v>
       </c>
       <c r="I40" t="n">
         <v>2</v>
@@ -3329,10 +3267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:49:44</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44390.40953703703</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
@@ -3396,10 +3332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:49:00</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44390.40902777778</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3463,10 +3397,8 @@
           <t>4898964100</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:47:23</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44390.40790509259</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3530,10 +3462,8 @@
           <t>4898953169</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:44:15</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44390.40572916667</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3597,10 +3527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:39:53</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44390.40269675926</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3676,10 +3604,8 @@
           <t>4895978821</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:26:14</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44390.39321759259</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3755,10 +3681,8 @@
           <t>4896136867</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:19:49</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44390.38876157408</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3834,10 +3758,8 @@
           <t>4898778262</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:04:38</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44390.3782175926</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3914,10 +3836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:04:03</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44390.3778125</v>
       </c>
       <c r="I49" t="n">
         <v>6</v>
@@ -3985,10 +3905,8 @@
           <t>4898759570</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:59:43</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44390.37480324074</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4052,10 +3970,8 @@
           <t>4895978821</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:36:53</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44390.35894675926</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4119,10 +4035,8 @@
           <t>4898675150</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:35:55</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44390.35827546296</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4186,10 +4100,8 @@
           <t>4895853644</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:35:27</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44390.35795138889</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4265,10 +4177,8 @@
           <t>4896380967</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:12:41</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44390.34214120371</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4344,10 +4254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-13 07:47:41</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44390.32478009259</v>
       </c>
       <c r="I55" t="n">
         <v>4</v>
@@ -4420,10 +4328,8 @@
           <t>4898467268</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-13 07:31:42</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44390.31368055556</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4496,10 +4402,8 @@
           <t>4896232391</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-13 07:31:35</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44390.31359953704</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4571,10 +4475,8 @@
           <t>4896042211</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-13 07:29:30</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44390.31215277778</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4646,10 +4548,8 @@
           <t>4895859400</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-13 07:15:23</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44390.30234953704</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4721,10 +4621,8 @@
           <t>4897612652</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-13 06:47:10</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44390.28275462963</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4792,10 +4690,8 @@
           <t>4895747416</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-13 06:00:33</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44390.25038194445</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4867,10 +4763,8 @@
           <t>4898307740</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-13 05:34:56</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44390.23259259259</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4942,10 +4836,8 @@
           <t>4895747416</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:58:12</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44390.12375</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5021,10 +4913,8 @@
           <t>4896136867</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:56:24</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44390.1225</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5088,10 +4978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:54:59</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44390.1215162037</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5174,10 +5062,8 @@
           <t>4898079941</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:20:09</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44390.09732638889</v>
       </c>
       <c r="I66" t="n">
         <v>4</v>
@@ -5241,10 +5127,8 @@
           <t>4898066975</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:11:49</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44390.09153935185</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5316,10 +5200,8 @@
           <t>4898057498</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:06:32</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44390.08787037037</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -5391,10 +5273,8 @@
           <t>4896136867</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:04:20</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44390.08634259259</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5470,10 +5350,8 @@
           <t>4896136867</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:03:44</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44390.08592592592</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5549,10 +5427,8 @@
           <t>4898042748</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:01:07</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44390.0841087963</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5620,10 +5496,8 @@
           <t>4898030969</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:57:07</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44390.08133101852</v>
       </c>
       <c r="I72" t="n">
         <v>3</v>
@@ -5699,10 +5573,8 @@
           <t>4898007509</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:53:03</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44390.07850694445</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5770,10 +5642,8 @@
           <t>4898007509</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:49:42</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44390.07618055555</v>
       </c>
       <c r="I74" t="n">
         <v>4</v>
@@ -5845,10 +5715,8 @@
           <t>4897999537</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:47:13</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44390.07445601852</v>
       </c>
       <c r="I75" t="n">
         <v>5</v>
@@ -5920,10 +5788,8 @@
           <t>4897872082</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:32:03</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44390.06392361111</v>
       </c>
       <c r="I76" t="n">
         <v>2</v>
@@ -5991,10 +5857,8 @@
           <t>4897872082</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:09:47</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44390.04846064815</v>
       </c>
       <c r="I77" t="n">
         <v>6</v>
@@ -6062,10 +5926,8 @@
           <t>4897864557</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:09:17</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44390.04811342592</v>
       </c>
       <c r="I78" t="n">
         <v>4</v>
@@ -6137,10 +5999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:45:03</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44390.03128472222</v>
       </c>
       <c r="I79" t="n">
         <v>8</v>
@@ -6208,10 +6068,8 @@
           <t>4897679355</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:29:56</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44390.02078703704</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6285,10 +6143,8 @@
           <t>4896042211</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:24:59</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44390.01734953704</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
@@ -6352,10 +6208,8 @@
           <t>4896099138</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:24:04</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44390.01671296296</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6432,10 +6286,8 @@
           <t>4897612652</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:18:39</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44390.01295138889</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6507,10 +6359,8 @@
           <t>4897607617</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:17:45</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44390.01232638889</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6582,10 +6432,8 @@
           <t>4895904887</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:16:57</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44390.01177083333</v>
       </c>
       <c r="I85" t="n">
         <v>2</v>
@@ -6662,10 +6510,8 @@
           <t>4895859400</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:15:45</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44390.0109375</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6742,10 +6588,8 @@
           <t>4896494446</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:13:45</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44390.00954861111</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6822,10 +6666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:12:01</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44390.00834490741</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6901,10 +6743,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:07:40</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44390.00532407407</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6976,10 +6816,8 @@
           <t>4897547188</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:07:22</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44390.00511574074</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7048,10 +6886,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:04:03</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44390.0028125</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7123,10 +6959,8 @@
           <t>4895860671</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:03:47</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44390.00262731482</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7194,10 +7028,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:02:18</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44390.00159722222</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7265,10 +7097,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:01:31</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44390.00105324074</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7340,10 +7170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:59:50</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44389.99988425926</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7419,10 +7247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:57:24</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44389.99819444444</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7490,10 +7316,8 @@
           <t>4896042211</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:56:03</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44389.99725694444</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7569,10 +7393,8 @@
           <t>4897400184</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:51:04</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44389.99379629629</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7636,10 +7458,8 @@
           <t>4897430622</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:50:04</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44389.99310185185</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7709,10 +7529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:49:05</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44389.99241898148</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7788,10 +7606,8 @@
           <t>4897410022</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:47:39</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44389.99142361111</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7855,10 +7671,8 @@
           <t>4897400184</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:45:44</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44389.99009259259</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7922,10 +7736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:45:17</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44389.98978009259</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8001,10 +7813,8 @@
           <t>4895755788</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:43:58</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44389.98886574074</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8072,10 +7882,8 @@
           <t>4896494446</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:37:47</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44389.98457175926</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8143,10 +7951,8 @@
           <t>4896042211</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:36:23</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44389.98359953704</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8210,10 +8016,8 @@
           <t>4896411065</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:35:14</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44389.98280092593</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8289,10 +8093,8 @@
           <t>4896411065</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:34:22</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44389.98219907407</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8368,10 +8170,8 @@
           <t>4896248167</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:31:45</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44389.98038194444</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8443,10 +8243,8 @@
           <t>4896042211</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:29:38</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44389.97891203704</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8510,10 +8308,8 @@
           <t>4895811147</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:27:16</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44389.97726851852</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8577,10 +8373,8 @@
           <t>4896778753</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:27:10</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44389.97719907408</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8656,10 +8450,8 @@
           <t>4896411065</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:27:03</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44389.97711805555</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8727,10 +8519,8 @@
           <t>4897187151</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:20:51</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44389.9728125</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8806,10 +8596,8 @@
           <t>4897187151</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:19:30</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44389.971875</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8873,10 +8661,8 @@
           <t>4896042211</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:11:31</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44389.96633101852</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8952,10 +8738,8 @@
           <t>4895811147</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:10:49</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44389.9658449074</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9019,10 +8803,8 @@
           <t>4896411065</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:07:26</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44389.96349537037</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9090,10 +8872,8 @@
           <t>4897082873</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:06:21</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44389.96274305556</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9161,10 +8941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:01:51</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44389.95961805555</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9236,10 +9014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:00:24</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44389.95861111111</v>
       </c>
       <c r="I121" t="n">
         <v>10</v>
@@ -9307,10 +9083,8 @@
           <t>4897033810</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:00:17</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44389.95853009259</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9386,10 +9160,8 @@
           <t>4896912238</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:45:34</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44389.94831018519</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9465,10 +9237,8 @@
           <t>4895931415</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:42:40</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44389.94629629629</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9544,10 +9314,8 @@
           <t>4896880469</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:40:47</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44389.94498842592</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9615,10 +9383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:38:32</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44389.94342592593</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9696,10 +9462,8 @@
           <t>4896130070</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:36:34</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44389.94206018518</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9775,10 +9539,8 @@
           <t>4896834984</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:36:33</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44389.94204861111</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9842,10 +9604,8 @@
           <t>4896042211</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:35:31</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44389.94133101852</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9921,10 +9681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:31:10</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44389.93831018519</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9992,10 +9750,8 @@
           <t>4896778753</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:29:07</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44389.93688657408</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10067,10 +9823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:26:39</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44389.93517361111</v>
       </c>
       <c r="I132" t="n">
         <v>5</v>
@@ -10134,10 +9888,8 @@
           <t>4896042211</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:26:32</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44389.93509259259</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10213,10 +9965,8 @@
           <t>4895842720</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:23:58</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44389.93331018519</v>
       </c>
       <c r="I134" t="n">
         <v>2</v>
@@ -10292,10 +10042,8 @@
           <t>4896736672</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:23:14</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44389.93280092593</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10371,10 +10119,8 @@
           <t>4895887685</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:22:18</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44389.93215277778</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10447,10 +10193,8 @@
           <t>4896720580</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:21:11</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44389.93137731482</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10519,10 +10263,8 @@
           <t>4896698811</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:19:44</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44389.93037037037</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10587,10 +10329,8 @@
           <t>4896697578</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:19:13</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44389.93001157408</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10654,10 +10394,8 @@
           <t>4896694432</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:19:06</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44389.92993055555</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10733,10 +10471,8 @@
           <t>4895978821</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:15:16</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44389.92726851852</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10812,10 +10548,8 @@
           <t>4896661363</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:14:33</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44389.92677083334</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10883,10 +10617,8 @@
           <t>4895821310</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:12:51</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44389.92559027778</v>
       </c>
       <c r="I143" t="n">
         <v>3</v>
@@ -10958,10 +10690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:11:55</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44389.92494212963</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11038,10 +10768,8 @@
           <t>4895807215</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:08:56</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44389.92287037037</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11105,10 +10833,8 @@
           <t>4895972503</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:08:53</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44389.92283564815</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11172,10 +10898,8 @@
           <t>4896615056</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:08:05</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44389.92228009259</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11243,10 +10967,8 @@
           <t>4896558250</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:01:09</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44389.91746527778</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11310,10 +11032,8 @@
           <t>4896550788</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:00:01</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44389.91667824074</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11389,10 +11109,8 @@
           <t>4896544440</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:59:45</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44389.91649305556</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11468,10 +11186,8 @@
           <t>4896545449</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:59:39</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44389.91642361111</v>
       </c>
       <c r="I151" t="n">
         <v>2</v>
@@ -11547,10 +11263,8 @@
           <t>4896541257</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:58:35</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44389.91568287037</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11626,10 +11340,8 @@
           <t>4895747416</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:58:00</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44389.91527777778</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11705,10 +11417,8 @@
           <t>4895765455</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:57:12</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44389.91472222222</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11784,10 +11494,8 @@
           <t>4895972503</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:54:55</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44389.91313657408</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11863,10 +11571,8 @@
           <t>4896494446</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:53:23</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44389.91207175926</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11938,10 +11644,8 @@
           <t>4896495025</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:52:40</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44389.91157407407</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -12005,10 +11709,8 @@
           <t>4896411065</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:48:39</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44389.90878472223</v>
       </c>
       <c r="I158" t="n">
         <v>8</v>
@@ -12084,10 +11786,8 @@
           <t>4896441298</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:45:45</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44389.90677083333</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12163,10 +11863,8 @@
           <t>4896411065</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:44:31</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44389.90591435185</v>
       </c>
       <c r="I160" t="n">
         <v>11</v>
@@ -12230,10 +11928,8 @@
           <t>4896426765</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:44:05</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44389.90561342592</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12305,10 +12001,8 @@
           <t>4896418021</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:42:58</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44389.90483796296</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12372,10 +12066,8 @@
           <t>4896411065</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:41:56</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44389.90412037037</v>
       </c>
       <c r="I163" t="n">
         <v>10</v>
@@ -12451,10 +12143,8 @@
           <t>4896315756</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:39:56</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44389.90273148148</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12522,10 +12212,8 @@
           <t>4896042211</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:39:35</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44389.90248842593</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12589,10 +12277,8 @@
           <t>4896387631</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:38:40</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44389.90185185185</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12668,10 +12354,8 @@
           <t>4896380967</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:38:03</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44389.90142361111</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12739,10 +12423,8 @@
           <t>4896368085</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:36:52</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44389.90060185185</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12806,10 +12488,8 @@
           <t>4896041928</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:36:50</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44389.9005787037</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12881,10 +12561,8 @@
           <t>4896042211</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:31:55</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44389.89716435185</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12960,10 +12638,8 @@
           <t>4896334931</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:31:54</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44389.89715277778</v>
       </c>
       <c r="I171" t="n">
         <v>11</v>
@@ -13027,10 +12703,8 @@
           <t>4896328738</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:31:05</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44389.89658564814</v>
       </c>
       <c r="I172" t="n">
         <v>7</v>
@@ -13098,10 +12772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:28:43</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44389.89494212963</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13177,10 +12849,8 @@
           <t>4896315756</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:28:24</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44389.89472222222</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13248,10 +12918,8 @@
           <t>4896117141</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:26:33</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44389.8934375</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13319,10 +12987,8 @@
           <t>4896300438</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:26:24</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44389.89333333333</v>
       </c>
       <c r="I176" t="n">
         <v>3</v>
@@ -13392,10 +13058,8 @@
           <t>4896283337</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:24:50</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44389.89224537037</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13471,10 +13135,8 @@
           <t>4896248167</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:24:11</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44389.89179398148</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13550,10 +13212,8 @@
           <t>4896271068</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:22:51</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44389.89086805555</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13621,10 +13281,8 @@
           <t>4896259607</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:22:25</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44389.89056712963</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13692,10 +13350,8 @@
           <t>4895747416</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:21:59</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44389.89026620371</v>
       </c>
       <c r="I181" t="n">
         <v>4</v>
@@ -13759,10 +13415,8 @@
           <t>4896262564</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:21:29</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44389.88991898148</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13830,10 +13484,8 @@
           <t>4896252260</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:20:19</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44389.8891087963</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13901,10 +13553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:19:50</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44389.88877314814</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13980,10 +13630,8 @@
           <t>4896248167</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:19:46</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44389.88872685185</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14051,10 +13699,8 @@
           <t>4896250776</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:19:43</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44389.88869212963</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14126,10 +13772,8 @@
           <t>4896250299</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:19:31</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44389.88855324074</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14193,10 +13837,8 @@
           <t>4896042211</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:18:09</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44389.88760416667</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14264,10 +13906,8 @@
           <t>4896031621</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:18:00</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44389.8875</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14343,10 +13983,8 @@
           <t>4895897904</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:17:53</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44389.88741898148</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14414,10 +14052,8 @@
           <t>4896232391</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:17:35</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44389.88721064815</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14481,10 +14117,8 @@
           <t>4896053026</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:14:26</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44389.88502314815</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14556,10 +14190,8 @@
           <t>4895778217</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:14:21</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44389.88496527778</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14631,10 +14263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:13:30</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44389.884375</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14706,10 +14336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:12:35</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44389.88373842592</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14777,10 +14405,8 @@
           <t>4896188986</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:12:27</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44389.88364583333</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14848,10 +14474,8 @@
           <t>4896042211</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:11:26</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44389.88293981482</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14927,10 +14551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:11:12</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44389.88277777778</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14994,10 +14616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:09:47</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44389.88179398148</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15061,10 +14681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:08:53</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44389.88116898148</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15128,10 +14746,8 @@
           <t>4896063592</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:05:59</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44389.8791550926</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15195,10 +14811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:05:50</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44389.87905092593</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15266,10 +14880,8 @@
           <t>4896134352</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:04:49</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44389.87834490741</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15337,10 +14949,8 @@
           <t>4895904887</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:04:28</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44389.87810185185</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15404,10 +15014,8 @@
           <t>4895821310</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:04:13</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44389.87792824074</v>
       </c>
       <c r="I205" t="n">
         <v>5</v>
@@ -15476,10 +15084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:04:05</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44389.87783564815</v>
       </c>
       <c r="I206" t="n">
         <v>5</v>
@@ -15551,10 +15157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:04:03</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44389.8778125</v>
       </c>
       <c r="I207" t="n">
         <v>173</v>
@@ -15626,10 +15230,8 @@
           <t>4896136945</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:03:55</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44389.87771990741</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15693,10 +15295,8 @@
           <t>4896136867</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:03:53</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44389.87769675926</v>
       </c>
       <c r="I209" t="n">
         <v>10</v>
@@ -15760,10 +15360,8 @@
           <t>4896130070</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:03:03</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44389.87711805556</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15839,10 +15437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:02:59</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44389.87707175926</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15906,10 +15502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:02:39</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44389.87684027778</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15973,10 +15567,8 @@
           <t>4896122071</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:02:04</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44389.87643518519</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16046,10 +15638,8 @@
           <t>4896117141</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:01:51</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44389.87628472222</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16125,10 +15715,8 @@
           <t>4896116644</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:01:38</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44389.87613425926</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16200,10 +15788,8 @@
           <t>4895904887</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:01:01</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44389.87570601852</v>
       </c>
       <c r="I216" t="n">
         <v>3</v>
@@ -16279,10 +15865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:00:08</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44389.87509259259</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16342,10 +15926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:00:05</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44389.87505787037</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16405,10 +15987,8 @@
           <t>4896099138</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:59:52</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44389.87490740741</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16484,10 +16064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:59:42</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44389.87479166667</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16563,10 +16141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:59:01</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44389.87431712963</v>
       </c>
       <c r="I221" t="n">
         <v>3</v>
@@ -16642,10 +16218,8 @@
           <t>4896082517</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:57:52</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44389.87351851852</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16709,10 +16283,8 @@
           <t>4896090480</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:57:35</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44389.87332175926</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16776,10 +16348,8 @@
           <t>4895747983</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:57:28</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44389.87324074074</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16847,10 +16417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:57:20</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44389.87314814814</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16918,10 +16486,8 @@
           <t>4895991285</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:57:19</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44389.87313657408</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16993,10 +16559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:56:59</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44389.87290509259</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17068,10 +16632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:56:53</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44389.87283564815</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17139,10 +16701,8 @@
           <t>4896082492</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:56:50</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44389.87280092593</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17211,10 +16771,8 @@
           <t>4896082517</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:56:50</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44389.87280092593</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17282,10 +16840,8 @@
           <t>4895853644</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:56:33</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44389.87260416667</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17357,10 +16913,8 @@
           <t>4896077703</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:56:31</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44389.87258101852</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17436,10 +16990,8 @@
           <t>4895980472</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:55:47</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44389.87207175926</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17503,10 +17055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:55:43</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44389.87202546297</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17582,10 +17132,8 @@
           <t>4896069113</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:55:05</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44389.87158564815</v>
       </c>
       <c r="I235" t="n">
         <v>6</v>
@@ -17657,10 +17205,8 @@
           <t>4896031621</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:55:05</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44389.87158564815</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17729,10 +17275,8 @@
           <t>4896063592</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:55:02</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44389.87155092593</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17796,10 +17340,8 @@
           <t>4896067929</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:54:37</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44389.87126157407</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17867,10 +17409,8 @@
           <t>4896067661</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:54:30</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44389.87118055556</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17946,10 +17486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:54:08</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44389.87092592593</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -18017,10 +17555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:53:28</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44389.87046296296</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -18096,10 +17632,8 @@
           <t>4896054990</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:53:24</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44389.87041666666</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18175,10 +17709,8 @@
           <t>4896053026</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:52:35</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44389.86984953703</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18242,10 +17774,8 @@
           <t>4896052949</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:52:33</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44389.86982638889</v>
       </c>
       <c r="I244" t="n">
         <v>2</v>
@@ -18317,10 +17847,8 @@
           <t>4896052093</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:52:13</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44389.86959490741</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18392,10 +17920,8 @@
           <t>4895931415</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:51:42</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44389.86923611111</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18471,10 +17997,8 @@
           <t>4895991285</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:51:38</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44389.86918981482</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18546,10 +18070,8 @@
           <t>4896042211</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:51:14</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44389.86891203704</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18625,10 +18147,8 @@
           <t>4896041928</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:51:07</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44389.86883101852</v>
       </c>
       <c r="I249" t="n">
         <v>2</v>
@@ -18704,10 +18224,8 @@
           <t>4895747416</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:51:03</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44389.86878472222</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18783,10 +18301,8 @@
           <t>4895821310</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:50:24</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44389.86833333333</v>
       </c>
       <c r="I251" t="n">
         <v>2</v>
@@ -18858,10 +18374,8 @@
           <t>4895980472</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:50:23</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44389.86832175926</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18925,10 +18439,8 @@
           <t>4896040267</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:50:22</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44389.86831018519</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18992,10 +18504,8 @@
           <t>4895949546</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:50:15</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44389.86822916667</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -19067,10 +18577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:50:07</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44389.86813657408</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19144,10 +18652,8 @@
           <t>4896031621</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:49:26</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44389.86766203704</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19223,10 +18729,8 @@
           <t>4896024744</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:49:11</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44389.86748842592</v>
       </c>
       <c r="I257" t="n">
         <v>3</v>
@@ -19302,10 +18806,8 @@
           <t>4896027340</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:49:06</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44389.86743055555</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19373,10 +18875,8 @@
           <t>4895904887</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:49:00</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44389.86736111111</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19444,10 +18944,8 @@
           <t>4896023309</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:48:35</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44389.86707175926</v>
       </c>
       <c r="I260" t="n">
         <v>3</v>
@@ -19511,10 +19009,8 @@
           <t>4895895813</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:48:21</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44389.86690972222</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19579,10 +19075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:48:04</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44389.86671296296</v>
       </c>
       <c r="I262" t="n">
         <v>23</v>
@@ -19646,10 +19140,8 @@
           <t>4896021891</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:48:00</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44389.86666666667</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19725,10 +19217,8 @@
           <t>4896017185</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:47:17</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44389.86616898148</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19804,10 +19294,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:46:41</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44389.86575231481</v>
       </c>
       <c r="I265" t="n">
         <v>2</v>
@@ -19871,10 +19359,8 @@
           <t>4896011625</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:46:36</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44389.86569444444</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19942,10 +19428,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:46:36</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44389.86569444444</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20013,10 +19497,8 @@
           <t>4896010558</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:46:08</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44389.86537037037</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20080,10 +19562,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:46:00</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44389.86527777778</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20151,10 +19631,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:45:56</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44389.86523148148</v>
       </c>
       <c r="I270" t="n">
         <v>2</v>
@@ -20227,10 +19705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:45:49</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44389.86515046296</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20306,10 +19782,8 @@
           <t>4895763786</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:45:49</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44389.86515046296</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20381,10 +19855,8 @@
           <t>4896006421</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:45:46</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44389.86511574074</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20456,10 +19928,8 @@
           <t>4895980472</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:45:44</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44389.86509259259</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20528,10 +19998,8 @@
           <t>4896005819</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:45:31</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44389.86494212963</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20603,10 +20071,8 @@
           <t>4895978821</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:45:19</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44389.86480324074</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20674,10 +20140,8 @@
           <t>4895811147</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:45:13</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44389.8647337963</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20741,10 +20205,8 @@
           <t>4895899610</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:45:00</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44389.86458333334</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20812,10 +20274,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:44:55</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44389.86452546297</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20879,10 +20339,8 @@
           <t>4895993686</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:44:39</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44389.86434027777</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20950,10 +20408,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:44:37</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44389.86431712963</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21021,10 +20477,8 @@
           <t>4896001368</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:44:34</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44389.8642824074</v>
       </c>
       <c r="I282" t="n">
         <v>3</v>
@@ -21096,10 +20550,8 @@
           <t>4895853644</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:44:26</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44389.86418981481</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21167,10 +20619,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:44:08</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44389.86398148148</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21234,10 +20684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:44:03</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44389.86392361111</v>
       </c>
       <c r="I285" t="n">
         <v>10</v>
@@ -21305,10 +20753,8 @@
           <t>4895991509</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:43:44</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44389.8637037037</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21372,10 +20818,8 @@
           <t>4895991285</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:43:39</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44389.86364583333</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21447,10 +20891,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:43:39</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44389.86364583333</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21518,10 +20960,8 @@
           <t>4895899610</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:43:20</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44389.86342592593</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21585,10 +21025,8 @@
           <t>4895980472</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:43:16</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44389.86337962963</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21652,10 +21090,8 @@
           <t>4895978821</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:42:38</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44389.86293981481</v>
       </c>
       <c r="I291" t="n">
         <v>5</v>
@@ -21742,10 +21178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:42:23</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44389.8627662037</v>
       </c>
       <c r="I292" t="n">
         <v>2</v>
@@ -21813,10 +21247,8 @@
           <t>4895981998</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:42:22</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44389.86275462963</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21892,10 +21324,8 @@
           <t>4895981960</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:42:21</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44389.86274305556</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21963,10 +21393,8 @@
           <t>4895899610</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:41:54</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44389.86243055556</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -22034,10 +21462,8 @@
           <t>4895853644</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:41:46</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44389.86233796296</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22115,10 +21541,8 @@
           <t>4895976685</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:41:45</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44389.86232638889</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22178,10 +21602,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:41:42</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44389.86229166666</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22249,10 +21671,8 @@
           <t>4895980472</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:41:41</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44389.8622800926</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22321,10 +21741,8 @@
           <t>4895811147</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:41:37</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44389.8622337963</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22400,10 +21818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:41:31</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44389.86216435185</v>
       </c>
       <c r="I301" t="n">
         <v>3</v>
@@ -22475,10 +21891,8 @@
           <t>4895974666</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:41:20</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44389.86203703703</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22554,10 +21968,8 @@
           <t>4895895813</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:41:17</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44389.86200231482</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22629,10 +22041,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:41:07</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44389.86188657407</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22700,10 +22110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:41:06</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44389.861875</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22772,10 +22180,8 @@
           <t>4895973411</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:40:49</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44389.86167824074</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22851,10 +22257,8 @@
           <t>4895973038</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:40:39</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44389.8615625</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22922,10 +22326,8 @@
           <t>4895967557</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:40:30</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44389.86145833333</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23001,10 +22403,8 @@
           <t>4895972503</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:40:25</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44389.86140046296</v>
       </c>
       <c r="I309" t="n">
         <v>9</v>
@@ -23068,10 +22468,8 @@
           <t>4895895813</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:40:23</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44389.86137731482</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23147,10 +22545,8 @@
           <t>4895895813</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:40:14</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44389.86127314815</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23222,10 +22618,8 @@
           <t>4895972064</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:40:14</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44389.86127314815</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23293,10 +22687,8 @@
           <t>4895971503</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:40:00</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44389.86111111111</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23360,10 +22752,8 @@
           <t>4895811147</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:39:57</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44389.86107638889</v>
       </c>
       <c r="I314" t="n">
         <v>2</v>
@@ -23423,10 +22813,8 @@
           <t>4895970821</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:39:43</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44389.86091435186</v>
       </c>
       <c r="I315" t="n">
         <v>2</v>
@@ -23494,10 +22882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:39:08</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44389.86050925926</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23573,10 +22959,8 @@
           <t>4895949546</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:39:05</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44389.86047453704</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23640,10 +23024,8 @@
           <t>4895953520</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:38:27</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44389.86003472222</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23719,10 +23101,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:38:03</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44389.85975694445</v>
       </c>
       <c r="I319" t="n">
         <v>2</v>
@@ -23794,10 +23174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:37:56</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44389.85967592592</v>
       </c>
       <c r="I320" t="n">
         <v>6</v>
@@ -23873,10 +23251,8 @@
           <t>4895817814</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:37:51</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44389.85961805555</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23948,10 +23324,8 @@
           <t>4895788971</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:37:49</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44389.85959490741</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24019,10 +23393,8 @@
           <t>4895946475</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:37:37</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44389.85945601852</v>
       </c>
       <c r="I323" t="n">
         <v>9</v>
@@ -24094,10 +23466,8 @@
           <t>4895951224</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:37:28</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44389.85935185185</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24173,10 +23543,8 @@
           <t>4895955413</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:37:22</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44389.85928240741</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -24244,10 +23612,8 @@
           <t>4895945251</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:37:01</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44389.85903935185</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24316,10 +23682,8 @@
           <t>4895937891</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:36:04</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44389.85837962963</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24388,10 +23752,8 @@
           <t>4895937016</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:35:42</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44389.858125</v>
       </c>
       <c r="I328" t="n">
         <v>7</v>
@@ -24467,10 +23829,8 @@
           <t>4895788971</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:35:41</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44389.85811342593</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24538,10 +23898,8 @@
           <t>4895850529</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:35:32</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44389.85800925926</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24605,10 +23963,8 @@
           <t>4895799835</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:35:32</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44389.85800925926</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24676,10 +24032,8 @@
           <t>4895931415</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:35:11</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44389.85776620371</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24743,10 +24097,8 @@
           <t>4895904887</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:35:09</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44389.85774305555</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24823,10 +24175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:35:02</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44389.85766203704</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24886,10 +24236,8 @@
           <t>4895924952</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:34:56</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44389.85759259259</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24961,10 +24309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:34:51</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44389.85753472222</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25040,10 +24386,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:34:39</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44389.85739583334</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25108,10 +24452,8 @@
           <t>4895929046</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:34:31</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44389.85730324074</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -25181,10 +24523,8 @@
           <t>4895897904</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:34:11</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44389.85707175926</v>
       </c>
       <c r="I339" t="n">
         <v>2</v>
@@ -25256,10 +24596,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:33:54</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44389.856875</v>
       </c>
       <c r="I340" t="n">
         <v>5</v>
@@ -25323,10 +24661,8 @@
           <t>4895918279</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:33:41</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44389.85672453704</v>
       </c>
       <c r="I341" t="n">
         <v>2</v>
@@ -25394,10 +24730,8 @@
           <t>4895921772</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:33:33</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44389.85663194444</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25465,10 +24799,8 @@
           <t>4895917141</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:33:09</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44389.85635416667</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25536,10 +24868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:33:08</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44389.85634259259</v>
       </c>
       <c r="I344" t="n">
         <v>14</v>
@@ -25618,10 +24948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:33:07</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44389.85633101852</v>
       </c>
       <c r="I345" t="n">
         <v>7</v>
@@ -25697,10 +25025,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:32:50</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44389.85613425926</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25777,10 +25103,8 @@
           <t>4895914380</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:32:34</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44389.85594907407</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25848,10 +25172,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:32:22</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44389.85581018519</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25923,10 +25245,8 @@
           <t>4895913366</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:32:07</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44389.85563657407</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26003,10 +25323,8 @@
           <t>4895913295</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:32:06</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44389.855625</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26078,10 +25396,8 @@
           <t>4895904887</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:32:04</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44389.85560185185</v>
       </c>
       <c r="I351" t="n">
         <v>12</v>
@@ -26149,10 +25465,8 @@
           <t>4895895813</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:32:02</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44389.8555787037</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26216,10 +25530,8 @@
           <t>4895763786</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:32:00</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44389.85555555556</v>
       </c>
       <c r="I353" t="n">
         <v>6</v>
@@ -26295,10 +25607,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:31:58</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44389.8555324074</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26370,10 +25680,8 @@
           <t>4895853644</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:31:55</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44389.85549768519</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26449,10 +25757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:31:26</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44389.85516203703</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26524,10 +25830,8 @@
           <t>4895884595</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:31:22</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44389.85511574074</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26587,10 +25891,8 @@
           <t>4895906240</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:31:07</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44389.85494212963</v>
       </c>
       <c r="I358" t="n">
         <v>7</v>
@@ -26654,10 +25956,8 @@
           <t>4895895813</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:30:40</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44389.85462962963</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26725,10 +26025,8 @@
           <t>4895899610</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:30:35</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44389.85457175926</v>
       </c>
       <c r="I360" t="n">
         <v>8</v>
@@ -26792,10 +26090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:30:16</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44389.85435185185</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26867,10 +26163,8 @@
           <t>4895817814</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:29:59</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44389.85415509259</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -26946,10 +26240,8 @@
           <t>4895897904</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:29:53</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44389.85408564815</v>
       </c>
       <c r="I363" t="n">
         <v>5</v>
@@ -27021,10 +26313,8 @@
           <t>4895821310</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:29:44</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44389.85398148148</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27096,10 +26386,8 @@
           <t>4895885691</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:29:27</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44389.85378472223</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -27167,10 +26455,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:29:17</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44389.85366898148</v>
       </c>
       <c r="I366" t="n">
         <v>14</v>
@@ -27234,10 +26520,8 @@
           <t>4895775140</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:29:14</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44389.85363425926</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27313,10 +26597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:29:05</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44389.85353009259</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27388,10 +26670,8 @@
           <t>4895895813</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:29:02</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44389.85349537037</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27456,10 +26736,8 @@
           <t>4895860671</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:28:48</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44389.85333333333</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27523,10 +26801,8 @@
           <t>4895887685</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:28:40</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44389.85324074074</v>
       </c>
       <c r="I371" t="n">
         <v>5</v>
@@ -27590,10 +26866,8 @@
           <t>4895860671</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:28:35</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44389.85318287037</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27661,10 +26935,8 @@
           <t>4895884595</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:28:33</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44389.85315972222</v>
       </c>
       <c r="I373" t="n">
         <v>4</v>
@@ -27736,10 +27008,8 @@
           <t>4895853644</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:28:31</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44389.85313657407</v>
       </c>
       <c r="I374" t="n">
         <v>3</v>
@@ -27807,10 +27077,8 @@
           <t>4895868843</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:28:25</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44389.85306712963</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27878,10 +27146,8 @@
           <t>4895886993</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:28:20</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44389.85300925926</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27957,10 +27223,8 @@
           <t>4895811147</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:28:14</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44389.85293981482</v>
       </c>
       <c r="I377" t="n">
         <v>3</v>
@@ -28032,10 +27296,8 @@
           <t>4895886711</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:28:12</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44389.85291666666</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28111,10 +27373,8 @@
           <t>4895817814</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:28:07</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44389.85285879629</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28190,10 +27450,8 @@
           <t>4895885691</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:27:43</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44389.85258101852</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28261,10 +27519,8 @@
           <t>4895877946</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:27:28</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44389.85240740741</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28340,10 +27596,8 @@
           <t>4895868843</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:27:28</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44389.85240740741</v>
       </c>
       <c r="I382" t="n">
         <v>2</v>
@@ -28411,10 +27665,8 @@
           <t>4895860671</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:27:16</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44389.85226851852</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28482,10 +27734,8 @@
           <t>4895877399</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:27:15</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44389.85225694445</v>
       </c>
       <c r="I384" t="n">
         <v>4</v>
@@ -28557,10 +27807,8 @@
           <t>4895869190</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:27:11</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44389.85221064815</v>
       </c>
       <c r="I385" t="n">
         <v>2</v>
@@ -28636,10 +27884,8 @@
           <t>4895874360</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:27:06</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44389.85215277778</v>
       </c>
       <c r="I386" t="n">
         <v>2</v>
@@ -28715,10 +27961,8 @@
           <t>4895874278</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:27:04</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44389.85212962963</v>
       </c>
       <c r="I387" t="n">
         <v>2</v>
@@ -28786,10 +28030,8 @@
           <t>4895817814</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:27:01</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44389.85209490741</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28861,10 +28103,8 @@
           <t>4895817814</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:26:53</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44389.85200231482</v>
       </c>
       <c r="I389" t="n">
         <v>2</v>
@@ -28933,10 +28173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:26:33</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44389.85177083333</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29012,10 +28250,8 @@
           <t>4895872959</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:26:28</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44389.85171296296</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29087,10 +28323,8 @@
           <t>4895869190</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:26:22</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44389.85164351852</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29162,10 +28396,8 @@
           <t>4895868843</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:26:15</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44389.8515625</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29233,10 +28465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:26:09</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44389.85149305555</v>
       </c>
       <c r="I394" t="n">
         <v>2</v>
@@ -29304,10 +28534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:26:08</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44389.85148148148</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29379,10 +28607,8 @@
           <t>4895817814</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:26:05</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44389.85144675926</v>
       </c>
       <c r="I396" t="n">
         <v>2</v>
@@ -29454,10 +28680,8 @@
           <t>4895864526</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:26:00</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44389.85138888889</v>
       </c>
       <c r="I397" t="n">
         <v>2</v>
@@ -29525,10 +28749,8 @@
           <t>4895811147</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:25:53</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44389.85130787037</v>
       </c>
       <c r="I398" t="n">
         <v>4</v>
@@ -29600,10 +28822,8 @@
           <t>4895860671</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:25:49</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44389.85126157408</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29667,10 +28887,8 @@
           <t>4895817814</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:25:46</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44389.85122685185</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29742,10 +28960,8 @@
           <t>4895841990</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:25:25</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44389.8509837963</v>
       </c>
       <c r="I401" t="n">
         <v>2</v>
@@ -29813,10 +29029,8 @@
           <t>4895866484</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:25:17</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44389.85089120371</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29892,10 +29106,8 @@
           <t>4895859991</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:25:07</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44389.85077546296</v>
       </c>
       <c r="I403" t="n">
         <v>4</v>
@@ -29963,10 +29175,8 @@
           <t>4895865599</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:24:56</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44389.85064814815</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30034,10 +29244,8 @@
           <t>4895736603</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:24:55</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44389.85063657408</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30101,10 +29309,8 @@
           <t>4895859400</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:24:51</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44389.85059027778</v>
       </c>
       <c r="I406" t="n">
         <v>2</v>
@@ -30176,10 +29382,8 @@
           <t>4895861808</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:24:50</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44389.85057870371</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30243,10 +29447,8 @@
           <t>4895859305</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:24:48</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44389.85055555555</v>
       </c>
       <c r="I408" t="n">
         <v>9</v>
@@ -30314,10 +29516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:24:45</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44389.85052083333</v>
       </c>
       <c r="I409" t="n">
         <v>2</v>
@@ -30389,10 +29589,8 @@
           <t>4895859180</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:24:45</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44389.85052083333</v>
       </c>
       <c r="I410" t="n">
         <v>3</v>
@@ -30468,10 +29666,8 @@
           <t>4895861575</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:24:44</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44389.85050925926</v>
       </c>
       <c r="I411" t="n">
         <v>2</v>
@@ -30539,10 +29735,8 @@
           <t>4895859084</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:24:42</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44389.85048611111</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30610,10 +29804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:24:30</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44389.85034722222</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30686,10 +29878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:24:21</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44389.85024305555</v>
       </c>
       <c r="I414" t="n">
         <v>7</v>
@@ -30757,10 +29947,8 @@
           <t>4895860671</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:24:21</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44389.85024305555</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30824,10 +30012,8 @@
           <t>4895853644</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:24:09</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44389.85010416667</v>
       </c>
       <c r="I416" t="n">
         <v>6</v>
@@ -30895,10 +30081,8 @@
           <t>4895747983</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:23:48</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44389.84986111111</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30974,10 +30158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:23:41</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44389.84978009259</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -31045,10 +30227,8 @@
           <t>4895788971</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:23:39</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44389.84975694444</v>
       </c>
       <c r="I419" t="n">
         <v>3</v>
@@ -31124,10 +30304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:23:30</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44389.84965277778</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -31203,10 +30381,8 @@
           <t>4895783505</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:23:24</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44389.84958333334</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31275,10 +30451,8 @@
           <t>4895817814</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:23:21</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44389.84954861111</v>
       </c>
       <c r="I422" t="n">
         <v>2</v>
@@ -31350,10 +30524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:23:18</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44389.84951388889</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31417,10 +30589,8 @@
           <t>4895855871</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:23:14</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44389.84946759259</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31484,10 +30654,8 @@
           <t>4895817814</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:23:06</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44389.849375</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31563,10 +30731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:22:55</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44389.84924768518</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31634,10 +30800,8 @@
           <t>4895850529</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:22:54</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44389.84923611111</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31709,10 +30873,8 @@
           <t>4895736603</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:22:41</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44389.84908564815</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31776,10 +30938,8 @@
           <t>4895773656</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:22:30</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44389.84895833334</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31847,10 +31007,8 @@
           <t>4895838653</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:22:12</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44389.84875</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31918,10 +31076,8 @@
           <t>4895845262</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:22:02</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44389.84863425926</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -31981,10 +31137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:21:59</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44389.84859953704</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32052,10 +31206,8 @@
           <t>4895842720</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:21:47</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44389.84846064815</v>
       </c>
       <c r="I433" t="n">
         <v>12</v>
@@ -32131,10 +31283,8 @@
           <t>4895775140</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:21:46</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44389.84844907407</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32206,10 +31356,8 @@
           <t>4895834158</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:21:34</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44389.84831018518</v>
       </c>
       <c r="I435" t="n">
         <v>7</v>
@@ -32281,10 +31429,8 @@
           <t>4895841990</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:21:29</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44389.84825231481</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32352,10 +31498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:21:25</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44389.84820601852</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32427,10 +31571,8 @@
           <t>4895775140</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:21:22</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44389.8481712963</v>
       </c>
       <c r="I438" t="n">
         <v>3</v>
@@ -32502,10 +31644,8 @@
           <t>4895736603</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:21:16</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44389.84810185185</v>
       </c>
       <c r="I439" t="n">
         <v>2</v>
@@ -32565,10 +31705,8 @@
           <t>4895836645</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:21:15</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44389.84809027778</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32632,10 +31770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:21:07</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44389.84799768519</v>
       </c>
       <c r="I441" t="n">
         <v>4</v>
@@ -32707,10 +31843,8 @@
           <t>4895832980</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:21:03</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44389.84795138889</v>
       </c>
       <c r="I442" t="n">
         <v>1</v>
@@ -32782,10 +31916,8 @@
           <t>4895817814</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:20:54</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44389.84784722222</v>
       </c>
       <c r="I443" t="n">
         <v>2</v>
@@ -32857,10 +31989,8 @@
           <t>4895807215</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:20:48</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44389.84777777778</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32936,10 +32066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:20:46</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44389.84775462963</v>
       </c>
       <c r="I445" t="n">
         <v>29</v>
@@ -33007,10 +32135,8 @@
           <t>4895747983</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:20:45</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44389.84774305556</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33086,10 +32212,8 @@
           <t>4895783505</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:20:39</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44389.84767361111</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33158,10 +32282,8 @@
           <t>4895809387</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:20:30</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44389.84756944444</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33237,10 +32359,8 @@
           <t>4895829074</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:20:30</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44389.84756944444</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33300,10 +32420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:20:23</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44389.84748842593</v>
       </c>
       <c r="I450" t="n">
         <v>16</v>
@@ -33379,10 +32497,8 @@
           <t>4895829088</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:20:19</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44389.84744212963</v>
       </c>
       <c r="I451" t="n">
         <v>4</v>
@@ -33446,10 +32562,8 @@
           <t>4895799835</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:20:07</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44389.84730324074</v>
       </c>
       <c r="I452" t="n">
         <v>7</v>
@@ -33517,10 +32631,8 @@
           <t>4895736603</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:20:04</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44389.84726851852</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33584,10 +32696,8 @@
           <t>4895824013</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:20:00</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44389.84722222222</v>
       </c>
       <c r="I454" t="n">
         <v>6</v>
@@ -33663,10 +32773,8 @@
           <t>4895817814</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:19:48</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44389.84708333333</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33738,10 +32846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:19:27</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44389.84684027778</v>
       </c>
       <c r="I456" t="n">
         <v>68</v>
@@ -33805,10 +32911,8 @@
           <t>4895802474</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:19:21</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44389.84677083333</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33876,10 +32980,8 @@
           <t>4895803923</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:19:10</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44389.84664351852</v>
       </c>
       <c r="I458" t="n">
         <v>9</v>
@@ -33947,10 +33049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:18:50</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44389.84641203703</v>
       </c>
       <c r="I459" t="n">
         <v>5</v>
@@ -34018,10 +33118,8 @@
           <t>4895809387</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:18:49</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44389.84640046296</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -34081,10 +33179,8 @@
           <t>4895817814</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:18:49</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44389.84640046296</v>
       </c>
       <c r="I461" t="n">
         <v>5</v>
@@ -34156,10 +33252,8 @@
           <t>4895821310</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:18:44</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44389.84634259259</v>
       </c>
       <c r="I462" t="n">
         <v>4</v>
@@ -34231,10 +33325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:18:43</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44389.84633101852</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -34302,10 +33394,8 @@
           <t>4895825006</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:18:41</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44389.84630787037</v>
       </c>
       <c r="I464" t="n">
         <v>6</v>
@@ -34373,10 +33463,8 @@
           <t>4895820727</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:18:28</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44389.84615740741</v>
       </c>
       <c r="I465" t="n">
         <v>7</v>
@@ -34452,10 +33540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:18:25</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44389.84612268519</v>
       </c>
       <c r="I466" t="n">
         <v>1</v>
@@ -34523,10 +33609,8 @@
           <t>4895783505</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:18:25</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44389.84612268519</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34598,10 +33682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:18:21</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44389.84607638889</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34679,10 +33761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:18:16</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44389.84601851852</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -34758,10 +33838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:18:06</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44389.84590277778</v>
       </c>
       <c r="I470" t="n">
         <v>3</v>
@@ -34829,10 +33907,8 @@
           <t>4895815844</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:17:59</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44389.84582175926</v>
       </c>
       <c r="I471" t="n">
         <v>2</v>
@@ -34909,10 +33985,8 @@
           <t>4895813121</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:17:58</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44389.84581018519</v>
       </c>
       <c r="I472" t="n">
         <v>2</v>
@@ -34984,10 +34058,8 @@
           <t>4895809387</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:17:51</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44389.84572916666</v>
       </c>
       <c r="I473" t="n">
         <v>14</v>
@@ -35063,10 +34135,8 @@
           <t>4895775140</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:17:50</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44389.84571759259</v>
       </c>
       <c r="I474" t="n">
         <v>3</v>
@@ -35138,10 +34208,8 @@
           <t>4895783505</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:17:42</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44389.845625</v>
       </c>
       <c r="I475" t="n">
         <v>5</v>
@@ -35209,10 +34277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:17:36</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44389.84555555556</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35280,10 +34346,8 @@
           <t>4895783505</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:17:34</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44389.84553240741</v>
       </c>
       <c r="I477" t="n">
         <v>5</v>
@@ -35359,10 +34423,8 @@
           <t>4895811147</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:17:11</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44389.8452662037</v>
       </c>
       <c r="I478" t="n">
         <v>4</v>
@@ -35426,10 +34488,8 @@
           <t>4895775780</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:17:10</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44389.84525462963</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35493,10 +34553,8 @@
           <t>4895803923</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:17:09</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44389.84524305556</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35568,10 +34626,8 @@
           <t>4895783505</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:17:06</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44389.84520833333</v>
       </c>
       <c r="I481" t="n">
         <v>2</v>
@@ -35643,10 +34699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:16:50</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44389.84502314815</v>
       </c>
       <c r="I482" t="n">
         <v>8</v>
@@ -35710,10 +34764,8 @@
           <t>4895807215</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:16:49</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44389.84501157407</v>
       </c>
       <c r="I483" t="n">
         <v>8</v>
@@ -35789,10 +34841,8 @@
           <t>4895802940</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:16:43</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44389.84494212963</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35868,10 +34918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:16:42</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44389.84493055556</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35947,10 +34995,8 @@
           <t>4895799835</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:16:41</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44389.84491898148</v>
       </c>
       <c r="I486" t="n">
         <v>3</v>
@@ -36026,10 +35072,8 @@
           <t>4895775140</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:16:32</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44389.84481481482</v>
       </c>
       <c r="I487" t="n">
         <v>6</v>
@@ -36105,10 +35149,8 @@
           <t>4895802474</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:16:31</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44389.84480324074</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36180,10 +35222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:16:28</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44389.84476851852</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36251,10 +35291,8 @@
           <t>4895783505</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:16:21</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44389.8446875</v>
       </c>
       <c r="I490" t="n">
         <v>2</v>
@@ -36318,10 +35356,8 @@
           <t>4895747416</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:15:57</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44389.84440972222</v>
       </c>
       <c r="I491" t="n">
         <v>19</v>
@@ -36389,10 +35425,8 @@
           <t>4895765455</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:15:55</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44389.84438657408</v>
       </c>
       <c r="I492" t="n">
         <v>4</v>
@@ -36460,10 +35494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:15:49</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44389.84431712963</v>
       </c>
       <c r="I493" t="n">
         <v>2</v>
@@ -36531,10 +35563,8 @@
           <t>4895775140</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:15:49</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44389.84431712963</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36610,10 +35640,8 @@
           <t>4895766191</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:15:36</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44389.84416666667</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36689,10 +35717,8 @@
           <t>4895794163</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:15:24</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44389.84402777778</v>
       </c>
       <c r="I496" t="n">
         <v>53</v>
@@ -36768,10 +35794,8 @@
           <t>4895775140</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:15:21</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44389.84399305555</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36843,10 +35867,8 @@
           <t>4895747983</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:15:19</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44389.84396990741</v>
       </c>
       <c r="I498" t="n">
         <v>4</v>
@@ -36918,10 +35940,8 @@
           <t>4895773656</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:15:09</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44389.84385416667</v>
       </c>
       <c r="I499" t="n">
         <v>21</v>
@@ -36989,10 +36009,8 @@
           <t>4895783505</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:15:05</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44389.84380787037</v>
       </c>
       <c r="I500" t="n">
         <v>7</v>
@@ -37068,10 +36086,8 @@
           <t>4895788971</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:15:02</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44389.84377314815</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37139,10 +36155,8 @@
           <t>4895775780</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:15:00</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44389.84375</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37212,10 +36226,8 @@
           <t>4895787906</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:14:36</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44389.84347222222</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37279,10 +36291,8 @@
           <t>4895766191</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:14:36</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44389.84347222222</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37358,10 +36368,8 @@
           <t>4895714260</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:14:32</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44389.84342592592</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37425,10 +36433,8 @@
           <t>4895736603</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:14:28</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44389.84337962963</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37492,10 +36498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:14:27</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44389.84336805555</v>
       </c>
       <c r="I507" t="n">
         <v>30</v>
@@ -37563,10 +36567,8 @@
           <t>4895753195</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:14:24</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44389.84333333333</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37634,10 +36636,8 @@
           <t>4895783802</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:14:18</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44389.84326388889</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37705,10 +36705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:14:16</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44389.84324074074</v>
       </c>
       <c r="I510" t="n">
         <v>35</v>
@@ -37786,10 +36784,8 @@
           <t>4895783505</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:14:11</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44389.84318287037</v>
       </c>
       <c r="I511" t="n">
         <v>19</v>
@@ -37858,10 +36854,8 @@
           <t>4895770727</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:14:06</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44389.843125</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -37937,10 +36931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:13:42</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44389.84284722222</v>
       </c>
       <c r="I513" t="n">
         <v>1</v>
@@ -38008,10 +37000,8 @@
           <t>4895755788</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:13:40</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44389.84282407408</v>
       </c>
       <c r="I514" t="n">
         <v>1</v>
@@ -38079,10 +37069,8 @@
           <t>4895747983</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:13:29</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44389.84269675926</v>
       </c>
       <c r="I515" t="n">
         <v>2</v>
@@ -38158,10 +37146,8 @@
           <t>4895770727</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:13:29</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44389.84269675926</v>
       </c>
       <c r="I516" t="n">
         <v>2</v>
@@ -38237,10 +37223,8 @@
           <t>4895747416</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:13:27</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44389.84267361111</v>
       </c>
       <c r="I517" t="n">
         <v>52</v>
@@ -38312,10 +37296,8 @@
           <t>4895779981</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:13:22</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44389.84261574074</v>
       </c>
       <c r="I518" t="n">
         <v>1</v>
@@ -38391,10 +37373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:13:20</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44389.84259259259</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38466,10 +37446,8 @@
           <t>4895753195</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:13:20</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44389.84259259259</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38537,10 +37515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:13:15</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44389.84253472222</v>
       </c>
       <c r="I521" t="n">
         <v>1</v>
@@ -38616,10 +37592,8 @@
           <t>4895775140</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:13:13</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44389.84251157408</v>
       </c>
       <c r="I522" t="n">
         <v>3</v>
@@ -38699,10 +37673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:12:59</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44389.84234953704</v>
       </c>
       <c r="I523" t="n">
         <v>19</v>
@@ -38770,10 +37742,8 @@
           <t>4895773656</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:12:50</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44389.84224537037</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38841,10 +37811,8 @@
           <t>4895736603</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:12:49</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44389.8422337963</v>
       </c>
       <c r="I525" t="n">
         <v>12</v>
@@ -38912,10 +37880,8 @@
           <t>4895736603</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:12:45</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44389.8421875</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -38983,10 +37949,8 @@
           <t>4895778217</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:12:37</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44389.84209490741</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -39054,10 +38018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:12:32</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44389.84203703704</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39133,10 +38095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:12:23</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44389.84193287037</v>
       </c>
       <c r="I529" t="n">
         <v>10</v>
@@ -39204,10 +38164,8 @@
           <t>4895714260</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:12:23</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44389.84193287037</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39271,10 +38229,8 @@
           <t>4895772430</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:12:16</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44389.84185185185</v>
       </c>
       <c r="I531" t="n">
         <v>2</v>
@@ -39346,10 +38302,8 @@
           <t>4895768460</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:12:13</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44389.84181712963</v>
       </c>
       <c r="I532" t="n">
         <v>7</v>
@@ -39422,10 +38376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:12:10</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44389.84178240741</v>
       </c>
       <c r="I533" t="n">
         <v>31</v>
@@ -39497,10 +38449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:58</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44389.84164351852</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39576,10 +38526,8 @@
           <t>4895775140</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:55</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44389.8416087963</v>
       </c>
       <c r="I535" t="n">
         <v>4</v>
@@ -39651,10 +38599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:41</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44389.84144675926</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39722,10 +38668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:38</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44389.84141203704</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39801,10 +38745,8 @@
           <t>4895775780</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:37</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44389.84140046296</v>
       </c>
       <c r="I538" t="n">
         <v>1</v>
@@ -39868,10 +38810,8 @@
           <t>4895770727</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:31</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44389.84133101852</v>
       </c>
       <c r="I539" t="n">
         <v>6</v>
@@ -39947,10 +38887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:30</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44389.84131944444</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -40022,10 +38960,8 @@
           <t>4895766191</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:22</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44389.84122685185</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -40097,10 +39033,8 @@
           <t>4895775140</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:21</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44389.84121527777</v>
       </c>
       <c r="I542" t="n">
         <v>5</v>
@@ -40176,10 +39110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:17</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44389.84116898148</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40247,10 +39179,8 @@
           <t>4895765824</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:14</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44389.84113425926</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40318,10 +39248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:08</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44389.84106481481</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40397,10 +39325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:05</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44389.84103009259</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40472,10 +39398,8 @@
           <t>4895765467</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:05</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44389.84103009259</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40543,10 +39467,8 @@
           <t>4895765455</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:05</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44389.84103009259</v>
       </c>
       <c r="I548" t="n">
         <v>133</v>
@@ -40614,10 +39536,8 @@
           <t>4895755788</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:04</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44389.84101851852</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40685,10 +39605,8 @@
           <t>4895754618</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:01</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44389.8409837963</v>
       </c>
       <c r="I550" t="n">
         <v>2</v>
@@ -40764,10 +39682,8 @@
           <t>4895764271</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:00</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44389.84097222222</v>
       </c>
       <c r="I551" t="n">
         <v>44</v>
@@ -40827,10 +39743,8 @@
           <t>4895763937</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:52</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44389.84087962963</v>
       </c>
       <c r="I552" t="n">
         <v>1</v>
@@ -40898,10 +39812,8 @@
           <t>4895763864</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:50</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44389.84085648148</v>
       </c>
       <c r="I553" t="n">
         <v>4</v>
@@ -40969,10 +39881,8 @@
           <t>4895763786</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:48</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44389.84083333334</v>
       </c>
       <c r="I554" t="n">
         <v>29</v>
@@ -41036,10 +39946,8 @@
           <t>4895759711</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:48</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44389.84083333334</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -41107,10 +40015,8 @@
           <t>4895763720</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:47</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44389.84082175926</v>
       </c>
       <c r="I556" t="n">
         <v>6</v>
@@ -41187,10 +40093,8 @@
           <t>4895754070</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:46</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44389.84081018518</v>
       </c>
       <c r="I557" t="n">
         <v>258</v>
@@ -41258,10 +40162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:43</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44389.84077546297</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41331,10 +40233,8 @@
           <t>4895763241</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:35</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44389.84068287037</v>
       </c>
       <c r="I559" t="n">
         <v>2</v>
@@ -41402,10 +40302,8 @@
           <t>4895747983</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:34</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44389.8406712963</v>
       </c>
       <c r="I560" t="n">
         <v>8</v>
@@ -41473,10 +40371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:32</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44389.84064814815</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41540,10 +40436,8 @@
           <t>4895762765</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:23</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44389.84054398148</v>
       </c>
       <c r="I562" t="n">
         <v>6</v>
@@ -41619,10 +40513,8 @@
           <t>4895753195</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:23</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44389.84054398148</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41690,10 +40582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:21</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44389.84052083334</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41757,10 +40647,8 @@
           <t>4895758442</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:19</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44389.84049768518</v>
       </c>
       <c r="I565" t="n">
         <v>2</v>
@@ -41828,10 +40716,8 @@
           <t>4895752795</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:11</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44389.84040509259</v>
       </c>
       <c r="I566" t="n">
         <v>3</v>
@@ -41907,10 +40793,8 @@
           <t>4895736603</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:08</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44389.84037037037</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41974,10 +40858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:07</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44389.8403587963</v>
       </c>
       <c r="I568" t="n">
         <v>244</v>
@@ -42041,10 +40923,8 @@
           <t>4895744036</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:10:01</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44389.84028935185</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -42108,10 +40988,8 @@
           <t>4895757571</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:09:58</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44389.84025462963</v>
       </c>
       <c r="I570" t="n">
         <v>1</v>
@@ -42187,10 +41065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:09:53</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44389.84019675926</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42259,10 +41135,8 @@
           <t>4895761391</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:09:49</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44389.84015046297</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42330,10 +41204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:09:43</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44389.84008101852</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42401,10 +41273,8 @@
           <t>4895755788</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:09:16</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44389.83976851852</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42472,10 +41342,8 @@
           <t>4895749974</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:09:14</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44389.83974537037</v>
       </c>
       <c r="I575" t="n">
         <v>11</v>
@@ -42547,10 +41415,8 @@
           <t>4895747983</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:09:10</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44389.83969907407</v>
       </c>
       <c r="I576" t="n">
         <v>48</v>
@@ -42626,10 +41492,8 @@
           <t>4895749822</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:09:10</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44389.83969907407</v>
       </c>
       <c r="I577" t="n">
         <v>2</v>
@@ -42701,10 +41565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:42</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44389.839375</v>
       </c>
       <c r="I578" t="n">
         <v>2</v>
@@ -42782,10 +41644,8 @@
           <t>4895739473</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:41</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44389.83936342593</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42861,10 +41721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:39</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44389.83934027778</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -42932,10 +41790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:39</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44389.83934027778</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -43005,10 +41861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:37</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44389.83931712963</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -43084,10 +41938,8 @@
           <t>4895744036</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:36</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44389.83930555556</v>
       </c>
       <c r="I583" t="n">
         <v>6</v>
@@ -43155,10 +42007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:30</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44389.83923611111</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43226,10 +42076,8 @@
           <t>4895747983</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:25</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44389.83917824074</v>
       </c>
       <c r="I585" t="n">
         <v>77</v>
@@ -43305,10 +42153,8 @@
           <t>4895738848</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:24</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44389.83916666666</v>
       </c>
       <c r="I586" t="n">
         <v>1</v>
@@ -43380,10 +42226,8 @@
           <t>4895747713</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:18</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44389.83909722222</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43457,10 +42301,8 @@
           <t>4895743105</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:15</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44389.8390625</v>
       </c>
       <c r="I588" t="n">
         <v>15</v>
@@ -43536,10 +42378,8 @@
           <t>4895747416</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:11</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44389.8390162037</v>
       </c>
       <c r="I589" t="n">
         <v>85</v>
@@ -43615,10 +42455,8 @@
           <t>4895742896</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:10</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44389.83900462963</v>
       </c>
       <c r="I590" t="n">
         <v>1</v>
@@ -43690,10 +42528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:09</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44389.83899305556</v>
       </c>
       <c r="I591" t="n">
         <v>4</v>
@@ -43769,10 +42605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:06</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44389.83895833333</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43836,10 +42670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:02</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44389.83891203703</v>
       </c>
       <c r="I593" t="n">
         <v>4</v>
@@ -43915,10 +42747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:07:46</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44389.83872685185</v>
       </c>
       <c r="I594" t="n">
         <v>7</v>
@@ -43990,10 +42820,8 @@
           <t>4895746307</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:07:43</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44389.83869212963</v>
       </c>
       <c r="I595" t="n">
         <v>1</v>
@@ -44072,10 +42900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:07:42</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44389.83868055556</v>
       </c>
       <c r="I596" t="n">
         <v>204</v>
@@ -44145,10 +42971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:07:41</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44389.83866898148</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -44216,10 +43040,8 @@
           <t>4895736988</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:07:33</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44389.83857638889</v>
       </c>
       <c r="I598" t="n">
         <v>1</v>
@@ -44295,10 +43117,8 @@
           <t>4895731070</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:07:28</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44389.83851851852</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44378,10 +43198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:07:24</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44389.83847222223</v>
       </c>
       <c r="I600" t="n">
         <v>3</v>
@@ -44449,10 +43267,8 @@
           <t>4895736603</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:07:23</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44389.83846064815</v>
       </c>
       <c r="I601" t="n">
         <v>5</v>
@@ -44520,10 +43336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:07:12</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44389.83833333333</v>
       </c>
       <c r="I602" t="n">
         <v>3</v>
@@ -44595,10 +43409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:07:10</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44389.83831018519</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44662,10 +43474,8 @@
           <t>4895736018</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:07:07</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44389.83827546296</v>
       </c>
       <c r="I604" t="n">
         <v>1</v>
@@ -44733,10 +43543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:07:05</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44389.83825231482</v>
       </c>
       <c r="I605" t="n">
         <v>2</v>
@@ -44804,10 +43612,8 @@
           <t>4895731070</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:07:02</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44389.83821759259</v>
       </c>
       <c r="I606" t="n">
         <v>6</v>
@@ -44887,10 +43693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:07:01</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44389.83820601852</v>
       </c>
       <c r="I607" t="n">
         <v>2</v>
@@ -44957,10 +43761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:07:00</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44389.83819444444</v>
       </c>
       <c r="I608" t="n">
         <v>1</v>
@@ -45030,10 +43832,8 @@
           <t>4895734826</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:06:59</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44389.83818287037</v>
       </c>
       <c r="I609" t="n">
         <v>17</v>
@@ -45093,10 +43893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:06:54</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44389.838125</v>
       </c>
       <c r="I610" t="n">
         <v>1</v>
@@ -45164,10 +43962,8 @@
           <t>4895728797</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:06:40</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44389.83796296296</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -45243,10 +44039,8 @@
           <t>4895733872</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:06:38</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44389.83793981482</v>
       </c>
       <c r="I612" t="n">
         <v>3</v>
@@ -45310,10 +44104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:06:37</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44389.83792824074</v>
       </c>
       <c r="I613" t="n">
         <v>2</v>
@@ -45381,10 +44173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:06:36</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44389.83791666666</v>
       </c>
       <c r="I614" t="n">
         <v>4</v>
@@ -45456,10 +44246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:06:31</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44389.83785879629</v>
       </c>
       <c r="I615" t="n">
         <v>2</v>
@@ -45527,10 +44315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:06:28</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44389.83782407407</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45603,10 +44389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:06:14</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44389.83766203704</v>
       </c>
       <c r="I617" t="n">
         <v>375</v>
@@ -45682,10 +44466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:06:13</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44389.83765046296</v>
       </c>
       <c r="I618" t="n">
         <v>1282</v>
@@ -45761,10 +44543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:06:12</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44389.83763888889</v>
       </c>
       <c r="I619" t="n">
         <v>914</v>
@@ -45828,10 +44608,8 @@
           <t>4895732684</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:06:10</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44389.83761574074</v>
       </c>
       <c r="I620" t="n">
         <v>2</v>
@@ -45903,10 +44681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:06:00</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44389.8375</v>
       </c>
       <c r="I621" t="n">
         <v>5</v>
@@ -45982,10 +44758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:05:51</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44389.83739583333</v>
       </c>
       <c r="I622" t="n">
         <v>226</v>
@@ -46045,10 +44819,8 @@
           <t>4895722929</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:05:44</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44389.83731481482</v>
       </c>
       <c r="I623" t="n">
         <v>3</v>
@@ -46116,10 +44888,8 @@
           <t>4895731349</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:05:41</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44389.83728009259</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -46187,10 +44957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:05:40</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44389.83726851852</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -46258,10 +45026,8 @@
           <t>4895726306</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:05:38</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44389.83724537037</v>
       </c>
       <c r="I626" t="n">
         <v>4</v>
@@ -46338,10 +45104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:05:35</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44389.83721064815</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -46413,10 +45177,8 @@
           <t>4895731070</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:05:34</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44389.83719907407</v>
       </c>
       <c r="I628" t="n">
         <v>9</v>
@@ -46492,10 +45254,8 @@
           <t>4895730997</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:05:33</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44389.8371875</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46563,10 +45323,8 @@
           <t>4895714260</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:05:32</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44389.83717592592</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -46638,10 +45396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:05:23</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44389.83707175926</v>
       </c>
       <c r="I631" t="n">
         <v>1</v>
@@ -46717,10 +45473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:04:59</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44389.83679398148</v>
       </c>
       <c r="I632" t="n">
         <v>48</v>
@@ -46788,10 +45542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:04:55</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44389.83674768519</v>
       </c>
       <c r="I633" t="n">
         <v>27</v>
@@ -46855,10 +45607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:04:52</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44389.83671296296</v>
       </c>
       <c r="I634" t="n">
         <v>2</v>
@@ -46930,10 +45680,8 @@
           <t>4895714260</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:04:47</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44389.83665509259</v>
       </c>
       <c r="I635" t="n">
         <v>8</v>
@@ -46997,10 +45745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:04:46</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44389.83664351852</v>
       </c>
       <c r="I636" t="n">
         <v>13</v>
@@ -47068,10 +45814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:04:34</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44389.83650462963</v>
       </c>
       <c r="I637" t="n">
         <v>36</v>
@@ -47139,10 +45883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:04:33</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44389.83649305555</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -47210,10 +45952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:04:33</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44389.83649305555</v>
       </c>
       <c r="I639" t="n">
         <v>507</v>
@@ -47289,10 +46029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:04:31</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44389.83646990741</v>
       </c>
       <c r="I640" t="n">
         <v>1</v>
@@ -47368,10 +46106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:04:08</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44389.8362037037</v>
       </c>
       <c r="I641" t="n">
         <v>220</v>
@@ -47439,10 +46175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:03:52</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44389.83601851852</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47514,10 +46248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:03:33</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44389.83579861111</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
@@ -47585,10 +46317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:03:08</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44389.83550925926</v>
       </c>
       <c r="I644" t="n">
         <v>6</v>
@@ -47664,10 +46394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:02:58</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44389.83539351852</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
